--- a/data/raw/superkneedata notes.xlsx
+++ b/data/raw/superkneedata notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mickgirdwood/r/superkdataclean/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299894C8-2071-9B40-8268-1B6E31D2AD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8F605A-FF68-DD44-9F83-47C95A52B5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36000" yWindow="-1860" windowWidth="26840" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36000" yWindow="500" windowWidth="26840" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2288" uniqueCount="1287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="1296">
   <si>
     <t>newname</t>
   </si>
@@ -3598,21 +3598,6 @@
     <t>m18_medicationdetails</t>
   </si>
   <si>
-    <t>m18_strengthsessions</t>
-  </si>
-  <si>
-    <t>m18_physiosessions1to1perwk</t>
-  </si>
-  <si>
-    <t>m18_physiosessionsgroupperwk</t>
-  </si>
-  <si>
-    <t>m18_homesessionsperwk</t>
-  </si>
-  <si>
-    <t>m18_gymsessionsperwk</t>
-  </si>
-  <si>
     <t>eighteen_month_subjective_ax_complete</t>
   </si>
   <si>
@@ -3881,6 +3866,48 @@
   </si>
   <si>
     <t>address_res</t>
+  </si>
+  <si>
+    <t>left_right_judgement_timestamp</t>
+  </si>
+  <si>
+    <t>l_lrjknee_reaction</t>
+  </si>
+  <si>
+    <t>r_lrjknee_reaction</t>
+  </si>
+  <si>
+    <t>l_lrjknee_accuracy</t>
+  </si>
+  <si>
+    <t>r_lrjknee_accuracy</t>
+  </si>
+  <si>
+    <t>l_lrjhand_reaction</t>
+  </si>
+  <si>
+    <t>r_lrjhand_reaction</t>
+  </si>
+  <si>
+    <t>l_lrjhand_accuracy</t>
+  </si>
+  <si>
+    <t>r_lrjhand_accuracy</t>
+  </si>
+  <si>
+    <t>left_right_judgement_complete</t>
+  </si>
+  <si>
+    <t>biodex_domhand</t>
+  </si>
+  <si>
+    <t>dominanthand</t>
+  </si>
+  <si>
+    <t>m12_gender</t>
+  </si>
+  <si>
+    <t>gender</t>
   </si>
 </sst>
 </file>
@@ -4721,10 +4748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E947"/>
+  <dimension ref="A1:E954"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A937" workbookViewId="0">
+      <selection activeCell="B956" sqref="B956"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4736,7 +4763,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -4884,7 +4911,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
@@ -4977,7 +5004,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -4985,7 +5012,7 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -4993,7 +5020,7 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -5213,7 +5240,7 @@
         <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -5221,7 +5248,7 @@
         <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -5229,7 +5256,7 @@
         <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -5237,7 +5264,7 @@
         <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -5245,7 +5272,7 @@
         <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -5253,7 +5280,7 @@
         <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -5261,7 +5288,7 @@
         <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -5269,7 +5296,7 @@
         <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -5389,7 +5416,7 @@
         <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -5397,7 +5424,7 @@
         <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -5437,7 +5464,7 @@
         <v>85</v>
       </c>
       <c r="B77" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -5445,7 +5472,7 @@
         <v>86</v>
       </c>
       <c r="B78" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -5453,7 +5480,7 @@
         <v>87</v>
       </c>
       <c r="B79" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -5541,7 +5568,7 @@
         <v>98</v>
       </c>
       <c r="B90" t="s">
-        <v>1267</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -5685,7 +5712,7 @@
         <v>116</v>
       </c>
       <c r="B108" t="s">
-        <v>1268</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -5693,7 +5720,7 @@
         <v>117</v>
       </c>
       <c r="B109" t="s">
-        <v>1269</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -5701,7 +5728,7 @@
         <v>118</v>
       </c>
       <c r="B110" t="s">
-        <v>1270</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -5709,7 +5736,7 @@
         <v>119</v>
       </c>
       <c r="B111" t="s">
-        <v>1271</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -5717,7 +5744,7 @@
         <v>120</v>
       </c>
       <c r="B112" t="s">
-        <v>1272</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -5725,7 +5752,7 @@
         <v>121</v>
       </c>
       <c r="B113" t="s">
-        <v>1273</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -6007,7 +6034,7 @@
         <v>144</v>
       </c>
       <c r="B134" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="D134" t="s">
         <v>127</v>
@@ -6345,7 +6372,7 @@
         <v>183</v>
       </c>
       <c r="B168" t="s">
-        <v>1279</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -6727,7 +6754,7 @@
         <v>234</v>
       </c>
       <c r="B212" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
@@ -7304,7 +7331,7 @@
         <v>362</v>
       </c>
       <c r="B277" t="s">
-        <v>1274</v>
+        <v>1269</v>
       </c>
       <c r="D277" t="s">
         <v>325</v>
@@ -7337,7 +7364,7 @@
         <v>367</v>
       </c>
       <c r="B280" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D280" t="s">
         <v>325</v>
@@ -7359,7 +7386,7 @@
         <v>370</v>
       </c>
       <c r="B282" t="s">
-        <v>1276</v>
+        <v>1271</v>
       </c>
       <c r="D282" t="s">
         <v>325</v>
@@ -7392,7 +7419,7 @@
         <v>375</v>
       </c>
       <c r="B285" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
       <c r="D285" t="s">
         <v>325</v>
@@ -7414,7 +7441,7 @@
         <v>378</v>
       </c>
       <c r="B287" t="s">
-        <v>1278</v>
+        <v>1273</v>
       </c>
       <c r="D287" t="s">
         <v>325</v>
@@ -9578,7 +9605,7 @@
         <v>715</v>
       </c>
       <c r="B535" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
@@ -9586,7 +9613,7 @@
         <v>716</v>
       </c>
       <c r="B536" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
@@ -9594,7 +9621,7 @@
         <v>717</v>
       </c>
       <c r="B537" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
@@ -9602,7 +9629,7 @@
         <v>718</v>
       </c>
       <c r="B538" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
@@ -11389,7 +11416,7 @@
         <v>968</v>
       </c>
       <c r="B743" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.2">
@@ -11413,7 +11440,7 @@
         <v>971</v>
       </c>
       <c r="B746" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.2">
@@ -12381,7 +12408,7 @@
         <v>1100</v>
       </c>
       <c r="B837" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.2">
@@ -12413,7 +12440,7 @@
         <v>1104</v>
       </c>
       <c r="B841" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.2">
@@ -12421,7 +12448,7 @@
         <v>1105</v>
       </c>
       <c r="B842" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.2">
@@ -12429,7 +12456,7 @@
         <v>1106</v>
       </c>
       <c r="B843" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.2">
@@ -12643,7 +12670,7 @@
         <v>1151</v>
       </c>
       <c r="B869" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.2">
@@ -12659,7 +12686,7 @@
         <v>1153</v>
       </c>
       <c r="B871" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.2">
@@ -12699,7 +12726,7 @@
         <v>1160</v>
       </c>
       <c r="B876" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.2">
@@ -12707,7 +12734,7 @@
         <v>1161</v>
       </c>
       <c r="B877" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.2">
@@ -12715,7 +12742,7 @@
         <v>1162</v>
       </c>
       <c r="B878" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.2">
@@ -12723,7 +12750,7 @@
         <v>1163</v>
       </c>
       <c r="B879" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.2">
@@ -12981,12 +13008,6 @@
       <c r="B902" t="s">
         <v>1192</v>
       </c>
-      <c r="C902" t="s">
-        <v>1</v>
-      </c>
-      <c r="D902" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="903" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
@@ -12998,9 +13019,6 @@
       <c r="C903" t="s">
         <v>1</v>
       </c>
-      <c r="D903" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="904" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A904" t="s">
@@ -13012,9 +13030,6 @@
       <c r="C904" t="s">
         <v>1</v>
       </c>
-      <c r="D904" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="905" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
@@ -13026,9 +13041,6 @@
       <c r="C905" t="s">
         <v>1</v>
       </c>
-      <c r="D905" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="906" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A906" t="s">
@@ -13040,9 +13052,6 @@
       <c r="C906" t="s">
         <v>1</v>
       </c>
-      <c r="D906" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="907" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A907" t="s">
@@ -13051,6 +13060,9 @@
       <c r="B907" t="s">
         <v>1197</v>
       </c>
+      <c r="C907" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="908" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A908" t="s">
@@ -13439,57 +13451,98 @@
     </row>
     <row r="943" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
-        <v>1233</v>
+        <v>1282</v>
       </c>
       <c r="B943" t="s">
-        <v>1233</v>
-      </c>
-      <c r="C943" t="s">
-        <v>1</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="944" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A944" t="s">
-        <v>1234</v>
+        <v>1283</v>
       </c>
       <c r="B944" t="s">
-        <v>1234</v>
-      </c>
-      <c r="C944" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="945" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
-        <v>1235</v>
+        <v>1284</v>
       </c>
       <c r="B945" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C945" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="946" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A946" t="s">
-        <v>1236</v>
+        <v>1285</v>
       </c>
       <c r="B946" t="s">
-        <v>1236</v>
-      </c>
-      <c r="C946" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="947" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A947" t="s">
-        <v>1237</v>
+        <v>1286</v>
       </c>
       <c r="B947" t="s">
-        <v>1237</v>
-      </c>
-      <c r="C947" t="s">
-        <v>1</v>
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A948" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B948" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A949" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B949" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A950" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B950" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A951" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B951" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A952" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B952" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A953" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B953" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A954" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B954" t="s">
+        <v>1295</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/superkneedata notes.xlsx
+++ b/data/raw/superkneedata notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mickgirdwood/r/superkdataclean/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8F605A-FF68-DD44-9F83-47C95A52B5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF12DEA-D980-DB45-9CE3-4DA8AEE02B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36000" yWindow="500" windowWidth="26840" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="1296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2337" uniqueCount="1326">
   <si>
     <t>newname</t>
   </si>
@@ -3908,6 +3908,96 @@
   </si>
   <si>
     <t>gender</t>
+  </si>
+  <si>
+    <t>surgery_information_timestamp</t>
+  </si>
+  <si>
+    <t>sx_name</t>
+  </si>
+  <si>
+    <t>sx_hospital</t>
+  </si>
+  <si>
+    <t>sx_primary</t>
+  </si>
+  <si>
+    <t>sx_side</t>
+  </si>
+  <si>
+    <t>sx_graft</t>
+  </si>
+  <si>
+    <t>sx_graft_other</t>
+  </si>
+  <si>
+    <t>sx_graftside</t>
+  </si>
+  <si>
+    <t>sx_meniscus</t>
+  </si>
+  <si>
+    <t>sx_meniscus_other</t>
+  </si>
+  <si>
+    <t>sx_meniscus_lat</t>
+  </si>
+  <si>
+    <t>sx_meniscus_other_lat</t>
+  </si>
+  <si>
+    <t>sx_patellacartilage</t>
+  </si>
+  <si>
+    <t>sx_trochleacartilage</t>
+  </si>
+  <si>
+    <t>sx_tibialcartilage</t>
+  </si>
+  <si>
+    <t>sx_tibiallatcartilage</t>
+  </si>
+  <si>
+    <t>sx_femoralcartilage</t>
+  </si>
+  <si>
+    <t>sx_femorallatcartilage</t>
+  </si>
+  <si>
+    <t>sx_cartilage_int</t>
+  </si>
+  <si>
+    <t>sx_cartilage_int_other</t>
+  </si>
+  <si>
+    <t>sx_other</t>
+  </si>
+  <si>
+    <t>sx_extradetails</t>
+  </si>
+  <si>
+    <t>surgery_information_complete</t>
+  </si>
+  <si>
+    <t>sx_meniscus_lat_other</t>
+  </si>
+  <si>
+    <t>sx_meniscus_med</t>
+  </si>
+  <si>
+    <t>sx_meniscus_med_other</t>
+  </si>
+  <si>
+    <t>sx_tibialcartilage_med</t>
+  </si>
+  <si>
+    <t>sx_tibialcartilage_lat</t>
+  </si>
+  <si>
+    <t>sx_femoralcartilage_med</t>
+  </si>
+  <si>
+    <t>sx_femoralcartilage_lat</t>
   </si>
 </sst>
 </file>
@@ -4748,10 +4838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E954"/>
+  <dimension ref="A1:E977"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A937" workbookViewId="0">
-      <selection activeCell="B956" sqref="B956"/>
+    <sheetView tabSelected="1" topLeftCell="A928" workbookViewId="0">
+      <selection activeCell="E976" sqref="E976"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13445,9 +13535,6 @@
       <c r="B942" t="s">
         <v>1232</v>
       </c>
-      <c r="C942" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="943" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
@@ -13543,6 +13630,190 @@
       </c>
       <c r="B954" t="s">
         <v>1295</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A955" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B955" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A956" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B956" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A957" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B957" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A958" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B958" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A959" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B959" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A960" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B960" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A961" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B961" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A962" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B962" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A963" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B963" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A964" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B964" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A965" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B965" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="966" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A966" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B966" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A967" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B967" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A968" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B968" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A969" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B969" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A970" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B970" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A971" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B971" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="972" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A972" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B972" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="973" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A973" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B973" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A974" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B974" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A975" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B975" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A976" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B976" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A977" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B977" t="s">
+        <v>1318</v>
       </c>
     </row>
   </sheetData>
